--- a/HRCT_all.xlsx
+++ b/HRCT_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phowlett/Library/CloudStorage/Dropbox/PhD/BSc 2024/Silicosis - Systematic Review/Meta-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E091B-AED8-9847-AE34-4BFF7CF8B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FCA568-3C38-564C-BEF8-6E66BE007092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="4040" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,16 +952,6 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17">
-        <f>SUM(F2:F16)</f>
-        <v>1207.0000110000001</v>
-      </c>
-      <c r="G17">
-        <f>SUM(G2:G16)</f>
-        <v>587</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E15">
     <sortCondition ref="A5:A15"/>
